--- a/docs/StructureDefinition-VACareTeam.xlsx
+++ b/docs/StructureDefinition-VACareTeam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="214">
   <si>
     <t>Path</t>
   </si>
@@ -310,21 +310,21 @@
     <t>CareTeam.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -333,17 +333,10 @@
     <t>CareTeam.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -547,9 +540,6 @@
   </si>
   <si>
     <t>CareTeam.participant.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1793,7 +1783,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1812,15 +1802,17 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>40</v>
@@ -1857,14 +1849,16 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>99</v>
@@ -1891,7 +1885,7 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -1900,7 +1894,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1919,16 +1913,16 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1978,7 +1972,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2007,7 +2001,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2030,13 +2024,13 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2087,7 +2081,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2105,7 +2099,7 @@
         <v>40</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
@@ -2116,7 +2110,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2142,13 +2136,13 @@
         <v>68</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2174,14 +2168,14 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="X12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2198,7 +2192,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2216,7 +2210,7 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2227,7 +2221,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2250,19 +2244,19 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2287,14 +2281,14 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2311,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2329,7 +2323,7 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2340,14 +2334,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>41</v>
@@ -2365,16 +2359,16 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2424,7 +2418,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2439,7 +2433,7 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -2453,11 +2447,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2476,17 +2470,17 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2535,7 +2529,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2553,7 +2547,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2564,11 +2558,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2587,13 +2581,13 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2644,7 +2638,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2662,7 +2656,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -2673,7 +2667,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2696,17 +2690,17 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2755,7 +2749,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2773,7 +2767,7 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -2784,7 +2778,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2807,13 +2801,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2864,7 +2858,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2873,27 +2867,27 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AI18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2916,13 +2910,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2973,7 +2967,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2997,16 +2991,16 @@
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3025,16 +3019,16 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3084,7 +3078,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3108,16 +3102,16 @@
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3136,16 +3130,16 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3195,7 +3189,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3224,7 +3218,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3247,16 +3241,16 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3282,13 +3276,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3306,7 +3300,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3327,15 +3321,15 @@
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3358,16 +3352,16 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3417,7 +3411,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3435,18 +3429,18 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3469,17 +3463,17 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3528,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3557,7 +3551,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3580,13 +3574,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3637,7 +3631,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3666,7 +3660,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3689,13 +3683,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3722,13 +3716,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -3746,7 +3740,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3764,7 +3758,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3775,7 +3769,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3798,13 +3792,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3855,7 +3849,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3873,7 +3867,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -3884,7 +3878,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3907,17 +3901,17 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -3966,7 +3960,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -3995,7 +3989,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4018,13 +4012,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4075,7 +4069,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-VACareTeam.xlsx
+++ b/docs/StructureDefinition-VACareTeam.xlsx
@@ -442,7 +442,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/VAPatient)
 </t>
   </si>
   <si>
@@ -2445,7 +2445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>134</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
